--- a/Data/Excel/FCFS/15.xlsx
+++ b/Data/Excel/FCFS/15.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,846 +1376,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>8</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>29.03</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>8</v>
-      </c>
-      <c r="E49" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D50" t="n">
-        <v>8</v>
-      </c>
-      <c r="E50" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>27.96</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>8</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>27.43</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D52" t="n">
-        <v>8</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D53" t="n">
-        <v>8</v>
-      </c>
-      <c r="E53" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>26.36</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>8</v>
-      </c>
-      <c r="E54" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>8</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D56" t="n">
-        <v>8</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>24.76</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D57" t="n">
-        <v>8</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D58" t="n">
-        <v>8</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D59" t="n">
-        <v>8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>8</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D61" t="n">
-        <v>8</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D62" t="n">
-        <v>8</v>
-      </c>
-      <c r="E62" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>8</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D64" t="n">
-        <v>8</v>
-      </c>
-      <c r="E64" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D65" t="n">
-        <v>8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>8</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>19.43</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D67" t="n">
-        <v>8</v>
-      </c>
-      <c r="E67" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D68" t="n">
-        <v>8</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D69" t="n">
-        <v>8</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D70" t="n">
-        <v>8</v>
-      </c>
-      <c r="E70" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D71" t="n">
-        <v>8</v>
-      </c>
-      <c r="E71" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D72" t="n">
-        <v>8</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>8</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>8</v>
-      </c>
-      <c r="E74" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>8</v>
-      </c>
-      <c r="E75" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D76" t="n">
-        <v>8</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D77" t="n">
-        <v>8</v>
-      </c>
-      <c r="E77" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D78" t="n">
-        <v>8</v>
-      </c>
-      <c r="E78" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D79" t="n">
-        <v>8</v>
-      </c>
-      <c r="E79" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-2.05</v>
-      </c>
-      <c r="D80" t="n">
-        <v>8</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="D81" t="n">
-        <v>8</v>
-      </c>
-      <c r="E81" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-2.05</v>
-      </c>
-      <c r="D82" t="n">
-        <v>8</v>
-      </c>
-      <c r="E82" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="D83" t="n">
-        <v>8</v>
-      </c>
-      <c r="E83" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="D84" t="n">
-        <v>8</v>
-      </c>
-      <c r="E84" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-1.88</v>
-      </c>
-      <c r="D85" t="n">
-        <v>8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-1.78</v>
-      </c>
-      <c r="D86" t="n">
-        <v>8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-1.66</v>
-      </c>
-      <c r="D87" t="n">
-        <v>8</v>
-      </c>
-      <c r="E87" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.53</v>
-      </c>
-      <c r="D88" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E88" t="n">
-        <v>3</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="D89" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2227,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2278,7 +1438,7 @@
         <v>59.92</v>
       </c>
       <c r="D2" t="n">
-        <v>9.890000000000001</v>
+        <v>11.11</v>
       </c>
       <c r="E2" t="n">
         <v>-1.57</v>
@@ -2295,10 +1455,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.26</v>
+        <v>59.18</v>
       </c>
       <c r="D3" t="n">
-        <v>9.789999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="E3" t="n">
         <v>-1.57</v>
@@ -2315,10 +1475,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>58.61</v>
+        <v>58.38</v>
       </c>
       <c r="D4" t="n">
-        <v>9.699999999999999</v>
+        <v>12.98</v>
       </c>
       <c r="E4" t="n">
         <v>-1.57</v>
@@ -2335,10 +1495,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>57.96</v>
+        <v>57.51</v>
       </c>
       <c r="D5" t="n">
-        <v>9.619999999999999</v>
+        <v>13.76</v>
       </c>
       <c r="E5" t="n">
         <v>-1.57</v>
@@ -2355,10 +1515,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>57.32</v>
+        <v>56.59</v>
       </c>
       <c r="D6" t="n">
-        <v>9.550000000000001</v>
+        <v>14.45</v>
       </c>
       <c r="E6" t="n">
         <v>-1.57</v>
@@ -2375,10 +1535,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>56.69</v>
+        <v>55.63</v>
       </c>
       <c r="D7" t="n">
-        <v>9.49</v>
+        <v>15.07</v>
       </c>
       <c r="E7" t="n">
         <v>-1.57</v>
@@ -2395,10 +1555,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>56.05</v>
+        <v>54.63</v>
       </c>
       <c r="D8" t="n">
-        <v>9.44</v>
+        <v>15.62</v>
       </c>
       <c r="E8" t="n">
         <v>-1.57</v>
@@ -2415,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>55.42</v>
+        <v>53.59</v>
       </c>
       <c r="D9" t="n">
-        <v>9.390000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="E9" t="n">
         <v>-1.57</v>
@@ -2435,10 +1595,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>54.8</v>
+        <v>52.51</v>
       </c>
       <c r="D10" t="n">
-        <v>9.35</v>
+        <v>16.54</v>
       </c>
       <c r="E10" t="n">
         <v>-1.57</v>
@@ -2455,10 +1615,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>54.18</v>
+        <v>51.41</v>
       </c>
       <c r="D11" t="n">
-        <v>9.31</v>
+        <v>16.92</v>
       </c>
       <c r="E11" t="n">
         <v>-1.57</v>
@@ -2475,10 +1635,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>53.55</v>
+        <v>50.28</v>
       </c>
       <c r="D12" t="n">
-        <v>9.27</v>
+        <v>17.26</v>
       </c>
       <c r="E12" t="n">
         <v>-1.57</v>
@@ -2495,10 +1655,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>52.94</v>
+        <v>49.13</v>
       </c>
       <c r="D13" t="n">
-        <v>9.24</v>
+        <v>17.57</v>
       </c>
       <c r="E13" t="n">
         <v>-1.57</v>
@@ -2515,10 +1675,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>52.32</v>
+        <v>47.96</v>
       </c>
       <c r="D14" t="n">
-        <v>9.220000000000001</v>
+        <v>17.84</v>
       </c>
       <c r="E14" t="n">
         <v>-1.57</v>
@@ -2535,10 +1695,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>51.71</v>
+        <v>46.77</v>
       </c>
       <c r="D15" t="n">
-        <v>9.19</v>
+        <v>18.08</v>
       </c>
       <c r="E15" t="n">
         <v>-1.57</v>
@@ -2555,10 +1715,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>51.09</v>
+        <v>45.56</v>
       </c>
       <c r="D16" t="n">
-        <v>9.17</v>
+        <v>18.29</v>
       </c>
       <c r="E16" t="n">
         <v>-1.57</v>
@@ -2575,10 +1735,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>50.48</v>
+        <v>44.35</v>
       </c>
       <c r="D17" t="n">
-        <v>9.15</v>
+        <v>18.48</v>
       </c>
       <c r="E17" t="n">
         <v>-1.57</v>
@@ -2595,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>49.87</v>
+        <v>43.11</v>
       </c>
       <c r="D18" t="n">
-        <v>9.140000000000001</v>
+        <v>18.65</v>
       </c>
       <c r="E18" t="n">
         <v>-1.57</v>
@@ -2615,10 +1775,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>49.26</v>
+        <v>41.87</v>
       </c>
       <c r="D19" t="n">
-        <v>9.119999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="E19" t="n">
         <v>-1.57</v>
@@ -2635,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>48.65</v>
+        <v>40.62</v>
       </c>
       <c r="D20" t="n">
-        <v>9.109999999999999</v>
+        <v>18.93</v>
       </c>
       <c r="E20" t="n">
         <v>-1.57</v>
@@ -2655,10 +1815,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>48.05</v>
+        <v>39.35</v>
       </c>
       <c r="D21" t="n">
-        <v>9.09</v>
+        <v>19.05</v>
       </c>
       <c r="E21" t="n">
         <v>-1.57</v>
@@ -2675,10 +1835,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>47.44</v>
+        <v>38.08</v>
       </c>
       <c r="D22" t="n">
-        <v>9.08</v>
+        <v>19.16</v>
       </c>
       <c r="E22" t="n">
         <v>-1.57</v>
@@ -2695,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>46.84</v>
+        <v>36.81</v>
       </c>
       <c r="D23" t="n">
-        <v>9.07</v>
+        <v>19.25</v>
       </c>
       <c r="E23" t="n">
         <v>-1.57</v>
@@ -2715,10 +1875,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>46.23</v>
+        <v>35.52</v>
       </c>
       <c r="D24" t="n">
-        <v>9.07</v>
+        <v>19.33</v>
       </c>
       <c r="E24" t="n">
         <v>-1.57</v>
@@ -2735,10 +1895,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>45.63</v>
+        <v>34.24</v>
       </c>
       <c r="D25" t="n">
-        <v>9.06</v>
+        <v>19.41</v>
       </c>
       <c r="E25" t="n">
         <v>-1.57</v>
@@ -2755,10 +1915,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>45.02</v>
+        <v>32.94</v>
       </c>
       <c r="D26" t="n">
-        <v>9.050000000000001</v>
+        <v>19.47</v>
       </c>
       <c r="E26" t="n">
         <v>-1.57</v>
@@ -2775,10 +1935,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>44.42</v>
+        <v>31.64</v>
       </c>
       <c r="D27" t="n">
-        <v>9.050000000000001</v>
+        <v>19.53</v>
       </c>
       <c r="E27" t="n">
         <v>-1.57</v>
@@ -2795,10 +1955,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>43.82</v>
+        <v>30.34</v>
       </c>
       <c r="D28" t="n">
-        <v>9.039999999999999</v>
+        <v>19.58</v>
       </c>
       <c r="E28" t="n">
         <v>-1.57</v>
@@ -2815,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>43.21</v>
+        <v>29.04</v>
       </c>
       <c r="D29" t="n">
-        <v>9.039999999999999</v>
+        <v>19.63</v>
       </c>
       <c r="E29" t="n">
         <v>-1.57</v>
@@ -2835,10 +1995,10 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>42.61</v>
+        <v>27.73</v>
       </c>
       <c r="D30" t="n">
-        <v>9.029999999999999</v>
+        <v>19.67</v>
       </c>
       <c r="E30" t="n">
         <v>-1.57</v>
@@ -2855,10 +2015,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>42.01</v>
+        <v>26.42</v>
       </c>
       <c r="D31" t="n">
-        <v>9.029999999999999</v>
+        <v>19.71</v>
       </c>
       <c r="E31" t="n">
         <v>-1.57</v>
@@ -2875,10 +2035,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>41.41</v>
+        <v>25.1</v>
       </c>
       <c r="D32" t="n">
-        <v>9.029999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="E32" t="n">
         <v>-1.57</v>
@@ -2895,10 +2055,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>40.8</v>
+        <v>23.75</v>
       </c>
       <c r="D33" t="n">
-        <v>9.02</v>
+        <v>20.82</v>
       </c>
       <c r="E33" t="n">
         <v>-1.57</v>
@@ -2915,10 +2075,10 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>40.2</v>
+        <v>22.36</v>
       </c>
       <c r="D34" t="n">
-        <v>9.02</v>
+        <v>21.28</v>
       </c>
       <c r="E34" t="n">
         <v>-1.57</v>
@@ -2935,10 +2095,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>39.6</v>
+        <v>20.94</v>
       </c>
       <c r="D35" t="n">
-        <v>9.02</v>
+        <v>21.7</v>
       </c>
       <c r="E35" t="n">
         <v>-1.57</v>
@@ -2955,10 +2115,10 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>39</v>
+        <v>19.49</v>
       </c>
       <c r="D36" t="n">
-        <v>9.02</v>
+        <v>22.06</v>
       </c>
       <c r="E36" t="n">
         <v>-1.57</v>
@@ -2975,10 +2135,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>38.4</v>
+        <v>18.02</v>
       </c>
       <c r="D37" t="n">
-        <v>9.01</v>
+        <v>22.39</v>
       </c>
       <c r="E37" t="n">
         <v>-1.57</v>
@@ -2995,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>37.8</v>
+        <v>16.53</v>
       </c>
       <c r="D38" t="n">
-        <v>9.01</v>
+        <v>22.68</v>
       </c>
       <c r="E38" t="n">
         <v>-1.57</v>
@@ -3015,10 +2175,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>37.2</v>
+        <v>15.02</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>23.49</v>
       </c>
       <c r="E39" t="n">
         <v>-1.57</v>
@@ -3035,10 +2195,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>36.6</v>
+        <v>13.45</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>24.22</v>
       </c>
       <c r="E40" t="n">
         <v>-1.57</v>
@@ -3052,16 +2212,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>11.84</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>24.86</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.57</v>
+        <v>-1.58</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -3072,16 +2232,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="C42" t="n">
-        <v>35.4</v>
+        <v>10.19</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>25.43</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.57</v>
+        <v>-1.62</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -3092,16 +2252,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="C43" t="n">
-        <v>34.79</v>
+        <v>8.51</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>25.94</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.57</v>
+        <v>-1.69</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -3112,16 +2272,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="C44" t="n">
-        <v>34.19</v>
+        <v>6.83</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>26.39</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.57</v>
+        <v>-1.78</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3132,16 +2292,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>0.59</v>
       </c>
       <c r="C45" t="n">
-        <v>33.59</v>
+        <v>5.18</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>26.79</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.57</v>
+        <v>-1.88</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3152,16 +2312,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>-0.23</v>
       </c>
       <c r="C46" t="n">
-        <v>32.99</v>
+        <v>3.6</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>27.15</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.57</v>
+        <v>-2</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3172,858 +2332,18 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>-1.23</v>
       </c>
       <c r="C47" t="n">
-        <v>32.39</v>
+        <v>2.11</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>27.46</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.57</v>
+        <v>-2.13</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>31.19</v>
-      </c>
-      <c r="D49" t="n">
-        <v>9</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2</v>
-      </c>
-      <c r="C50" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="D50" t="n">
-        <v>9</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="D51" t="n">
-        <v>9</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2</v>
-      </c>
-      <c r="C52" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="D52" t="n">
-        <v>9</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>28.79</v>
-      </c>
-      <c r="D53" t="n">
-        <v>9</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2</v>
-      </c>
-      <c r="C54" t="n">
-        <v>28.19</v>
-      </c>
-      <c r="D54" t="n">
-        <v>9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" t="n">
-        <v>27.59</v>
-      </c>
-      <c r="D55" t="n">
-        <v>9</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="D56" t="n">
-        <v>9</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>26.39</v>
-      </c>
-      <c r="D57" t="n">
-        <v>9</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" t="n">
-        <v>25.79</v>
-      </c>
-      <c r="D58" t="n">
-        <v>9</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="D59" t="n">
-        <v>9</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2</v>
-      </c>
-      <c r="C60" t="n">
-        <v>24.59</v>
-      </c>
-      <c r="D60" t="n">
-        <v>9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>23.99</v>
-      </c>
-      <c r="D61" t="n">
-        <v>9</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="D62" t="n">
-        <v>9</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
-      </c>
-      <c r="C63" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="D63" t="n">
-        <v>9</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="D64" t="n">
-        <v>9</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="D65" t="n">
-        <v>9</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2</v>
-      </c>
-      <c r="C66" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="D66" t="n">
-        <v>9</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>2</v>
-      </c>
-      <c r="C67" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="D67" t="n">
-        <v>9</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2</v>
-      </c>
-      <c r="C68" t="n">
-        <v>19.79</v>
-      </c>
-      <c r="D68" t="n">
-        <v>9</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2</v>
-      </c>
-      <c r="C69" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="D69" t="n">
-        <v>9</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2</v>
-      </c>
-      <c r="C70" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="D70" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2</v>
-      </c>
-      <c r="C71" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="D71" t="n">
-        <v>9</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="D72" t="n">
-        <v>9</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2</v>
-      </c>
-      <c r="C73" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="D74" t="n">
-        <v>9</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="D75" t="n">
-        <v>9</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2</v>
-      </c>
-      <c r="C76" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="D76" t="n">
-        <v>9</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="D77" t="n">
-        <v>9</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2</v>
-      </c>
-      <c r="C78" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="D78" t="n">
-        <v>9</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2</v>
-      </c>
-      <c r="C79" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="D79" t="n">
-        <v>9</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C80" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="D80" t="n">
-        <v>9</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C81" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="D81" t="n">
-        <v>9</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C82" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="D82" t="n">
-        <v>9</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="C83" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="D83" t="n">
-        <v>9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="C84" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D84" t="n">
-        <v>9</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-1.61</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C85" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="D85" t="n">
-        <v>9</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="C86" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="D86" t="n">
-        <v>9</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="C87" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="C88" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C89" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="D89" t="n">
-        <v>9</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-1.78</v>
-      </c>
-      <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4038,7 +2358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4089,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>9.890000000000001</v>
+        <v>11.11</v>
       </c>
       <c r="E2" t="n">
         <v>-0</v>
@@ -4103,13 +2423,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-59.51</v>
+        <v>-59.43</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>9.789999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -4123,13 +2443,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-58.86</v>
+        <v>-58.62</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>9.699999999999999</v>
+        <v>12.98</v>
       </c>
       <c r="E4" t="n">
         <v>-0</v>
@@ -4143,13 +2463,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-58.21</v>
+        <v>-57.76</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>9.619999999999999</v>
+        <v>13.76</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
@@ -4163,13 +2483,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-57.57</v>
+        <v>-56.84</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>9.550000000000001</v>
+        <v>14.45</v>
       </c>
       <c r="E6" t="n">
         <v>-0</v>
@@ -4183,13 +2503,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-56.93</v>
+        <v>-55.88</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>9.49</v>
+        <v>15.07</v>
       </c>
       <c r="E7" t="n">
         <v>-0</v>
@@ -4203,13 +2523,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-56.3</v>
+        <v>-54.87</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>9.44</v>
+        <v>15.62</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4223,13 +2543,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-55.67</v>
+        <v>-53.83</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>9.390000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="E9" t="n">
         <v>-0</v>
@@ -4243,13 +2563,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-55.04</v>
+        <v>-52.76</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>9.35</v>
+        <v>16.54</v>
       </c>
       <c r="E10" t="n">
         <v>-0</v>
@@ -4263,13 +2583,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-54.42</v>
+        <v>-51.65</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>9.31</v>
+        <v>16.92</v>
       </c>
       <c r="E11" t="n">
         <v>-0</v>
@@ -4283,13 +2603,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-53.8</v>
+        <v>-50.53</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>9.27</v>
+        <v>17.26</v>
       </c>
       <c r="E12" t="n">
         <v>-0</v>
@@ -4303,13 +2623,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-53.18</v>
+        <v>-49.37</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>9.24</v>
+        <v>17.57</v>
       </c>
       <c r="E13" t="n">
         <v>-0</v>
@@ -4323,13 +2643,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-52.56</v>
+        <v>-48.2</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>9.220000000000001</v>
+        <v>17.84</v>
       </c>
       <c r="E14" t="n">
         <v>-0</v>
@@ -4343,13 +2663,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-51.95</v>
+        <v>-47.01</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>9.19</v>
+        <v>18.08</v>
       </c>
       <c r="E15" t="n">
         <v>-0</v>
@@ -4363,13 +2683,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-51.34</v>
+        <v>-45.81</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>9.17</v>
+        <v>18.29</v>
       </c>
       <c r="E16" t="n">
         <v>-0</v>
@@ -4383,13 +2703,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50.73</v>
+        <v>-44.59</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>9.15</v>
+        <v>18.48</v>
       </c>
       <c r="E17" t="n">
         <v>-0</v>
@@ -4403,13 +2723,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-50.12</v>
+        <v>-43.36</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>9.140000000000001</v>
+        <v>18.65</v>
       </c>
       <c r="E18" t="n">
         <v>-0</v>
@@ -4423,13 +2743,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-49.51</v>
+        <v>-42.11</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>9.119999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="E19" t="n">
         <v>-0</v>
@@ -4443,13 +2763,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-48.9</v>
+        <v>-40.86</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>9.109999999999999</v>
+        <v>18.93</v>
       </c>
       <c r="E20" t="n">
         <v>-0</v>
@@ -4463,13 +2783,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-48.29</v>
+        <v>-39.6</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>9.09</v>
+        <v>19.05</v>
       </c>
       <c r="E21" t="n">
         <v>-0</v>
@@ -4483,13 +2803,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-47.69</v>
+        <v>-38.33</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>9.08</v>
+        <v>19.16</v>
       </c>
       <c r="E22" t="n">
         <v>-0</v>
@@ -4503,13 +2823,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-47.08</v>
+        <v>-37.05</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>9.07</v>
+        <v>19.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0</v>
@@ -4523,13 +2843,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-46.47</v>
+        <v>-35.77</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>9.07</v>
+        <v>19.33</v>
       </c>
       <c r="E24" t="n">
         <v>-0</v>
@@ -4543,13 +2863,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-45.87</v>
+        <v>-34.48</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>9.06</v>
+        <v>19.41</v>
       </c>
       <c r="E25" t="n">
         <v>-0</v>
@@ -4563,13 +2883,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-45.27</v>
+        <v>-33.19</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>9.050000000000001</v>
+        <v>19.47</v>
       </c>
       <c r="E26" t="n">
         <v>-0</v>
@@ -4583,13 +2903,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-44.66</v>
+        <v>-31.89</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>9.050000000000001</v>
+        <v>19.53</v>
       </c>
       <c r="E27" t="n">
         <v>-0</v>
@@ -4603,13 +2923,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-44.06</v>
+        <v>-30.59</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>9.039999999999999</v>
+        <v>19.58</v>
       </c>
       <c r="E28" t="n">
         <v>-0</v>
@@ -4623,13 +2943,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-43.46</v>
+        <v>-29.28</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>9.039999999999999</v>
+        <v>19.63</v>
       </c>
       <c r="E29" t="n">
         <v>-0</v>
@@ -4643,13 +2963,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-42.85</v>
+        <v>-27.97</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>9.029999999999999</v>
+        <v>19.67</v>
       </c>
       <c r="E30" t="n">
         <v>-0</v>
@@ -4663,13 +2983,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-42.25</v>
+        <v>-26.66</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>9.029999999999999</v>
+        <v>19.71</v>
       </c>
       <c r="E31" t="n">
         <v>-0</v>
@@ -4683,13 +3003,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-41.65</v>
+        <v>-25.35</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>9.029999999999999</v>
+        <v>19.74</v>
       </c>
       <c r="E32" t="n">
         <v>-0</v>
@@ -4703,13 +3023,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-41.05</v>
+        <v>-24.03</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>9.02</v>
+        <v>19.77</v>
       </c>
       <c r="E33" t="n">
         <v>-0</v>
@@ -4723,13 +3043,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-40.45</v>
+        <v>-22.71</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>9.02</v>
+        <v>19.79</v>
       </c>
       <c r="E34" t="n">
         <v>-0</v>
@@ -4743,13 +3063,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-39.85</v>
+        <v>-21.39</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>9.02</v>
+        <v>19.82</v>
       </c>
       <c r="E35" t="n">
         <v>-0</v>
@@ -4763,13 +3083,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-39.24</v>
+        <v>-20.07</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>9.02</v>
+        <v>19.84</v>
       </c>
       <c r="E36" t="n">
         <v>-0</v>
@@ -4783,13 +3103,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-38.64</v>
+        <v>-18.75</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>9.01</v>
+        <v>19.86</v>
       </c>
       <c r="E37" t="n">
         <v>-0</v>
@@ -4803,13 +3123,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-38.04</v>
+        <v>-17.42</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>9.01</v>
+        <v>19.87</v>
       </c>
       <c r="E38" t="n">
         <v>-0</v>
@@ -4823,13 +3143,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-37.44</v>
+        <v>-16.1</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>19.89</v>
       </c>
       <c r="E39" t="n">
         <v>-0</v>
@@ -4843,13 +3163,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-36.84</v>
+        <v>-14.77</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>19.9</v>
       </c>
       <c r="E40" t="n">
         <v>-0</v>
@@ -4863,13 +3183,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-36.24</v>
+        <v>-13.45</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>19.91</v>
       </c>
       <c r="E41" t="n">
         <v>-0</v>
@@ -4883,16 +3203,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-35.64</v>
+        <v>-12.12</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>19.92</v>
       </c>
       <c r="E42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -4903,16 +3223,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-35.04</v>
+        <v>-10.79</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>20.48</v>
       </c>
       <c r="E43" t="n">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -4923,16 +3243,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-34.44</v>
+        <v>-9.44</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>20.99</v>
       </c>
       <c r="E44" t="n">
-        <v>-0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -4943,16 +3263,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-33.84</v>
+        <v>-8.06</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>21.43</v>
       </c>
       <c r="E45" t="n">
-        <v>-0</v>
+        <v>-0.14</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -4963,16 +3283,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-33.24</v>
+        <v>-6.69</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>21.83</v>
       </c>
       <c r="E46" t="n">
-        <v>-0</v>
+        <v>-0.22</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -4983,858 +3303,18 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-32.64</v>
+        <v>-5.38</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>22.18</v>
       </c>
       <c r="E47" t="n">
-        <v>-0</v>
+        <v>-0.31</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-32.04</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-31.44</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>9</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-30.84</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" t="n">
-        <v>9</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-30.24</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>9</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-29.64</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" t="n">
-        <v>9</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-29.04</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2</v>
-      </c>
-      <c r="D53" t="n">
-        <v>9</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-28.44</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-27.84</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>9</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-27.24</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2</v>
-      </c>
-      <c r="D56" t="n">
-        <v>9</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-26.64</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2</v>
-      </c>
-      <c r="D57" t="n">
-        <v>9</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-26.04</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2</v>
-      </c>
-      <c r="D58" t="n">
-        <v>9</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-25.44</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2</v>
-      </c>
-      <c r="D59" t="n">
-        <v>9</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-24.84</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-24.24</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2</v>
-      </c>
-      <c r="D61" t="n">
-        <v>9</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-23.64</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2</v>
-      </c>
-      <c r="D62" t="n">
-        <v>9</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-23.04</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>9</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-22.44</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2</v>
-      </c>
-      <c r="D64" t="n">
-        <v>9</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-21.84</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2</v>
-      </c>
-      <c r="D65" t="n">
-        <v>9</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-21.24</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>9</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-20.63</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2</v>
-      </c>
-      <c r="D67" t="n">
-        <v>9</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-20.03</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2</v>
-      </c>
-      <c r="D68" t="n">
-        <v>9</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-19.43</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2</v>
-      </c>
-      <c r="D69" t="n">
-        <v>9</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-18.83</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-18.23</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2</v>
-      </c>
-      <c r="D71" t="n">
-        <v>9</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-17.63</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2</v>
-      </c>
-      <c r="D72" t="n">
-        <v>9</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-17.03</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-16.43</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>9</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-15.83</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>9</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-15.23</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2</v>
-      </c>
-      <c r="D76" t="n">
-        <v>9</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-14.63</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D77" t="n">
-        <v>9</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-14.03</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2</v>
-      </c>
-      <c r="D78" t="n">
-        <v>9</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-13.43</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2</v>
-      </c>
-      <c r="D79" t="n">
-        <v>9</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-12.84</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="D80" t="n">
-        <v>9</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-12.24</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="D81" t="n">
-        <v>9</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-11.64</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="D82" t="n">
-        <v>9</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-11.04</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="D83" t="n">
-        <v>9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-10.44</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="D84" t="n">
-        <v>9</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-9.85</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D85" t="n">
-        <v>9</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-9.26</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D86" t="n">
-        <v>9</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-8.67</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-8.1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-7.52</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D89" t="n">
-        <v>9</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5849,7 +3329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5900,7 +3380,7 @@
         <v>-52.2</v>
       </c>
       <c r="D2" t="n">
-        <v>9.890000000000001</v>
+        <v>11.67</v>
       </c>
       <c r="E2" t="n">
         <v>1.57</v>
@@ -5917,10 +3397,10 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-51.54</v>
+        <v>-51.42</v>
       </c>
       <c r="D3" t="n">
-        <v>9.789999999999999</v>
+        <v>13.15</v>
       </c>
       <c r="E3" t="n">
         <v>1.57</v>
@@ -5937,10 +3417,10 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-50.89</v>
+        <v>-50.55</v>
       </c>
       <c r="D4" t="n">
-        <v>9.699999999999999</v>
+        <v>14.47</v>
       </c>
       <c r="E4" t="n">
         <v>1.57</v>
@@ -5957,10 +3437,10 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-50.24</v>
+        <v>-49.58</v>
       </c>
       <c r="D5" t="n">
-        <v>9.619999999999999</v>
+        <v>15.64</v>
       </c>
       <c r="E5" t="n">
         <v>1.57</v>
@@ -5977,10 +3457,10 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-49.6</v>
+        <v>-48.54</v>
       </c>
       <c r="D6" t="n">
-        <v>9.550000000000001</v>
+        <v>16.68</v>
       </c>
       <c r="E6" t="n">
         <v>1.57</v>
@@ -5997,10 +3477,10 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-48.96</v>
+        <v>-47.43</v>
       </c>
       <c r="D7" t="n">
-        <v>9.49</v>
+        <v>17.6</v>
       </c>
       <c r="E7" t="n">
         <v>1.57</v>
@@ -6017,10 +3497,10 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-48.33</v>
+        <v>-46.25</v>
       </c>
       <c r="D8" t="n">
-        <v>9.44</v>
+        <v>18.42</v>
       </c>
       <c r="E8" t="n">
         <v>1.57</v>
@@ -6037,10 +3517,10 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-47.7</v>
+        <v>-45.03</v>
       </c>
       <c r="D9" t="n">
-        <v>9.390000000000001</v>
+        <v>19.15</v>
       </c>
       <c r="E9" t="n">
         <v>1.57</v>
@@ -6057,10 +3537,10 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-47.08</v>
+        <v>-43.75</v>
       </c>
       <c r="D10" t="n">
-        <v>9.35</v>
+        <v>19.8</v>
       </c>
       <c r="E10" t="n">
         <v>1.57</v>
@@ -6077,10 +3557,10 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-46.45</v>
+        <v>-42.43</v>
       </c>
       <c r="D11" t="n">
-        <v>9.31</v>
+        <v>20.38</v>
       </c>
       <c r="E11" t="n">
         <v>1.57</v>
@@ -6097,10 +3577,10 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-45.83</v>
+        <v>-41.07</v>
       </c>
       <c r="D12" t="n">
-        <v>9.27</v>
+        <v>20.89</v>
       </c>
       <c r="E12" t="n">
         <v>1.57</v>
@@ -6117,10 +3597,10 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-45.21</v>
+        <v>-39.68</v>
       </c>
       <c r="D13" t="n">
-        <v>9.24</v>
+        <v>21.35</v>
       </c>
       <c r="E13" t="n">
         <v>1.57</v>
@@ -6137,10 +3617,10 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-44.6</v>
+        <v>-38.25</v>
       </c>
       <c r="D14" t="n">
-        <v>9.220000000000001</v>
+        <v>21.76</v>
       </c>
       <c r="E14" t="n">
         <v>1.57</v>
@@ -6157,10 +3637,10 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-43.98</v>
+        <v>-36.8</v>
       </c>
       <c r="D15" t="n">
-        <v>9.19</v>
+        <v>22.12</v>
       </c>
       <c r="E15" t="n">
         <v>1.57</v>
@@ -6177,10 +3657,10 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-43.37</v>
+        <v>-35.33</v>
       </c>
       <c r="D16" t="n">
-        <v>9.17</v>
+        <v>22.44</v>
       </c>
       <c r="E16" t="n">
         <v>1.57</v>
@@ -6197,10 +3677,10 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-42.76</v>
+        <v>-33.83</v>
       </c>
       <c r="D17" t="n">
-        <v>9.15</v>
+        <v>22.72</v>
       </c>
       <c r="E17" t="n">
         <v>1.57</v>
@@ -6217,10 +3697,10 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-42.15</v>
+        <v>-32.32</v>
       </c>
       <c r="D18" t="n">
-        <v>9.140000000000001</v>
+        <v>23.53</v>
       </c>
       <c r="E18" t="n">
         <v>1.57</v>
@@ -6237,10 +3717,10 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-41.54</v>
+        <v>-30.75</v>
       </c>
       <c r="D19" t="n">
-        <v>9.119999999999999</v>
+        <v>24.25</v>
       </c>
       <c r="E19" t="n">
         <v>1.57</v>
@@ -6257,10 +3737,10 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-40.93</v>
+        <v>-29.13</v>
       </c>
       <c r="D20" t="n">
-        <v>9.109999999999999</v>
+        <v>24.89</v>
       </c>
       <c r="E20" t="n">
         <v>1.57</v>
@@ -6277,10 +3757,10 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-40.32</v>
+        <v>-27.47</v>
       </c>
       <c r="D21" t="n">
-        <v>9.09</v>
+        <v>25.46</v>
       </c>
       <c r="E21" t="n">
         <v>1.57</v>
@@ -6297,10 +3777,10 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-39.72</v>
+        <v>-25.78</v>
       </c>
       <c r="D22" t="n">
-        <v>9.08</v>
+        <v>25.96</v>
       </c>
       <c r="E22" t="n">
         <v>1.57</v>
@@ -6317,10 +3797,10 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-39.11</v>
+        <v>-24.05</v>
       </c>
       <c r="D23" t="n">
-        <v>9.07</v>
+        <v>26.41</v>
       </c>
       <c r="E23" t="n">
         <v>1.57</v>
@@ -6337,10 +3817,10 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-38.51</v>
+        <v>-22.29</v>
       </c>
       <c r="D24" t="n">
-        <v>9.07</v>
+        <v>26.81</v>
       </c>
       <c r="E24" t="n">
         <v>1.57</v>
@@ -6357,10 +3837,10 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-37.9</v>
+        <v>-20.5</v>
       </c>
       <c r="D25" t="n">
-        <v>9.06</v>
+        <v>27.16</v>
       </c>
       <c r="E25" t="n">
         <v>1.57</v>
@@ -6377,10 +3857,10 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-37.3</v>
+        <v>-18.69</v>
       </c>
       <c r="D26" t="n">
-        <v>9.050000000000001</v>
+        <v>27.48</v>
       </c>
       <c r="E26" t="n">
         <v>1.57</v>
@@ -6397,10 +3877,10 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-36.7</v>
+        <v>-16.86</v>
       </c>
       <c r="D27" t="n">
-        <v>9.050000000000001</v>
+        <v>27.76</v>
       </c>
       <c r="E27" t="n">
         <v>1.57</v>
@@ -6417,10 +3897,10 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-36.09</v>
+        <v>-15.01</v>
       </c>
       <c r="D28" t="n">
-        <v>9.039999999999999</v>
+        <v>28.01</v>
       </c>
       <c r="E28" t="n">
         <v>1.57</v>
@@ -6437,10 +3917,10 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-35.49</v>
+        <v>-13.14</v>
       </c>
       <c r="D29" t="n">
-        <v>9.039999999999999</v>
+        <v>28.23</v>
       </c>
       <c r="E29" t="n">
         <v>1.57</v>
@@ -6454,16 +3934,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-2</v>
+        <v>-1.95</v>
       </c>
       <c r="C30" t="n">
-        <v>-34.89</v>
+        <v>-11.26</v>
       </c>
       <c r="D30" t="n">
-        <v>9.029999999999999</v>
+        <v>28.43</v>
       </c>
       <c r="E30" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -6474,16 +3954,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-2</v>
+        <v>-1.76</v>
       </c>
       <c r="C31" t="n">
-        <v>-34.28</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>9.029999999999999</v>
+        <v>28.6</v>
       </c>
       <c r="E31" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -6494,16 +3974,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-2</v>
+        <v>-1.39</v>
       </c>
       <c r="C32" t="n">
-        <v>-33.68</v>
+        <v>-7.5</v>
       </c>
       <c r="D32" t="n">
-        <v>9.029999999999999</v>
+        <v>28.76</v>
       </c>
       <c r="E32" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -6514,16 +3994,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-2</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>-33.08</v>
+        <v>-5.67</v>
       </c>
       <c r="D33" t="n">
-        <v>9.02</v>
+        <v>28.89</v>
       </c>
       <c r="E33" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -6534,16 +4014,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-2</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
-        <v>-32.48</v>
+        <v>-3.93</v>
       </c>
       <c r="D34" t="n">
-        <v>9.02</v>
+        <v>29.02</v>
       </c>
       <c r="E34" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -6554,16 +4034,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-2</v>
+        <v>1.04</v>
       </c>
       <c r="C35" t="n">
-        <v>-31.88</v>
+        <v>-2.3</v>
       </c>
       <c r="D35" t="n">
-        <v>9.02</v>
+        <v>29.13</v>
       </c>
       <c r="E35" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -6574,16 +4054,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-2</v>
+        <v>2.31</v>
       </c>
       <c r="C36" t="n">
-        <v>-31.28</v>
+        <v>-0.83</v>
       </c>
       <c r="D36" t="n">
-        <v>9.02</v>
+        <v>29.22</v>
       </c>
       <c r="E36" t="n">
-        <v>1.57</v>
+        <v>0.9</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -6594,16 +4074,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-2</v>
+        <v>3.79</v>
       </c>
       <c r="C37" t="n">
-        <v>-30.68</v>
+        <v>0.44</v>
       </c>
       <c r="D37" t="n">
-        <v>9.01</v>
+        <v>29.31</v>
       </c>
       <c r="E37" t="n">
-        <v>1.57</v>
+        <v>0.75</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -6614,16 +4094,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-2</v>
+        <v>5.45</v>
       </c>
       <c r="C38" t="n">
-        <v>-30.07</v>
+        <v>1.48</v>
       </c>
       <c r="D38" t="n">
-        <v>9.01</v>
+        <v>29.39</v>
       </c>
       <c r="E38" t="n">
-        <v>1.57</v>
+        <v>0.6</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6634,16 +4114,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-2</v>
+        <v>7.24</v>
       </c>
       <c r="C39" t="n">
-        <v>-29.47</v>
+        <v>2.26</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>29.45</v>
       </c>
       <c r="E39" t="n">
-        <v>1.57</v>
+        <v>0.45</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -6654,16 +4134,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-2</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>-28.87</v>
+        <v>2.77</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>29.52</v>
       </c>
       <c r="E40" t="n">
-        <v>1.57</v>
+        <v>0.3</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6674,16 +4154,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-2</v>
+        <v>11.08</v>
       </c>
       <c r="C41" t="n">
-        <v>-28.27</v>
+        <v>3.08</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>29.57</v>
       </c>
       <c r="E41" t="n">
-        <v>1.57</v>
+        <v>0.19</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -6694,16 +4174,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-2</v>
+        <v>13.05</v>
       </c>
       <c r="C42" t="n">
-        <v>-27.67</v>
+        <v>3.24</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>29.62</v>
       </c>
       <c r="E42" t="n">
-        <v>1.57</v>
+        <v>0.11</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -6714,16 +4194,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-2</v>
+        <v>15.02</v>
       </c>
       <c r="C43" t="n">
-        <v>-27.07</v>
+        <v>3.31</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>29.66</v>
       </c>
       <c r="E43" t="n">
-        <v>1.57</v>
+        <v>0.05</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -6734,16 +4214,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="C44" t="n">
-        <v>-26.47</v>
+        <v>3.3</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>29.7</v>
       </c>
       <c r="E44" t="n">
-        <v>1.57</v>
+        <v>0.01</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6754,16 +4234,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-2</v>
+        <v>18.97</v>
       </c>
       <c r="C45" t="n">
-        <v>-25.87</v>
+        <v>3.25</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>29.73</v>
       </c>
       <c r="E45" t="n">
-        <v>1.57</v>
+        <v>-0.02</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -6774,16 +4254,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-2</v>
+        <v>20.96</v>
       </c>
       <c r="C46" t="n">
-        <v>-25.27</v>
+        <v>3.16</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>29.76</v>
       </c>
       <c r="E46" t="n">
-        <v>1.57</v>
+        <v>-0.04</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -6794,858 +4274,18 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-2</v>
+        <v>22.94</v>
       </c>
       <c r="C47" t="n">
-        <v>-24.67</v>
+        <v>3.07</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>29.79</v>
       </c>
       <c r="E47" t="n">
-        <v>1.57</v>
+        <v>-0.05</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-24.07</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-23.47</v>
-      </c>
-      <c r="D49" t="n">
-        <v>9</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-22.87</v>
-      </c>
-      <c r="D50" t="n">
-        <v>9</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-22.27</v>
-      </c>
-      <c r="D51" t="n">
-        <v>9</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-21.67</v>
-      </c>
-      <c r="D52" t="n">
-        <v>9</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-21.07</v>
-      </c>
-      <c r="D53" t="n">
-        <v>9</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-20.47</v>
-      </c>
-      <c r="D54" t="n">
-        <v>9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-19.87</v>
-      </c>
-      <c r="D55" t="n">
-        <v>9</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-19.27</v>
-      </c>
-      <c r="D56" t="n">
-        <v>9</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-18.67</v>
-      </c>
-      <c r="D57" t="n">
-        <v>9</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-18.07</v>
-      </c>
-      <c r="D58" t="n">
-        <v>9</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-17.47</v>
-      </c>
-      <c r="D59" t="n">
-        <v>9</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-16.87</v>
-      </c>
-      <c r="D60" t="n">
-        <v>9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-16.27</v>
-      </c>
-      <c r="D61" t="n">
-        <v>9</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-15.67</v>
-      </c>
-      <c r="D62" t="n">
-        <v>9</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-15.07</v>
-      </c>
-      <c r="D63" t="n">
-        <v>9</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-14.47</v>
-      </c>
-      <c r="D64" t="n">
-        <v>9</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-13.87</v>
-      </c>
-      <c r="D65" t="n">
-        <v>9</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-13.27</v>
-      </c>
-      <c r="D66" t="n">
-        <v>9</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-12.67</v>
-      </c>
-      <c r="D67" t="n">
-        <v>9</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-2.07</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-12.07</v>
-      </c>
-      <c r="D68" t="n">
-        <v>9</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-11.47</v>
-      </c>
-      <c r="D69" t="n">
-        <v>9</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-10.87</v>
-      </c>
-      <c r="D70" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-10.28</v>
-      </c>
-      <c r="D71" t="n">
-        <v>9</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-1.86</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-9.68</v>
-      </c>
-      <c r="D72" t="n">
-        <v>9</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-9.09</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-8.51</v>
-      </c>
-      <c r="D74" t="n">
-        <v>9</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-7.93</v>
-      </c>
-      <c r="D75" t="n">
-        <v>9</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-7.36</v>
-      </c>
-      <c r="D76" t="n">
-        <v>9</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-1.04</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-6.8</v>
-      </c>
-      <c r="D77" t="n">
-        <v>9</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-6.25</v>
-      </c>
-      <c r="D78" t="n">
-        <v>9</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-5.71</v>
-      </c>
-      <c r="D79" t="n">
-        <v>9</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-5.18</v>
-      </c>
-      <c r="D80" t="n">
-        <v>9</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-4.67</v>
-      </c>
-      <c r="D81" t="n">
-        <v>9</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-4.16</v>
-      </c>
-      <c r="D82" t="n">
-        <v>9</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-3.68</v>
-      </c>
-      <c r="D83" t="n">
-        <v>9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-3.21</v>
-      </c>
-      <c r="D84" t="n">
-        <v>9</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="D85" t="n">
-        <v>9</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-2.32</v>
-      </c>
-      <c r="D86" t="n">
-        <v>9</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="D89" t="n">
-        <v>9</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
